--- a/data/Exp_data/Growth_freepH.xlsx
+++ b/data/Exp_data/Growth_freepH.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\Exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA88F6-5E54-459C-9298-D1CC748E079D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302216EC-007A-4837-AEE6-CD770B7A87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,49 +36,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>OD600_avg_A</t>
-  </si>
-  <si>
-    <t>OD600_std_A</t>
-  </si>
-  <si>
-    <t>OD600_avg_B</t>
-  </si>
-  <si>
-    <t>OD600_std_B</t>
-  </si>
-  <si>
-    <t>pH_A</t>
-  </si>
-  <si>
-    <t>pH_B</t>
-  </si>
-  <si>
-    <t>EPS_avg_A</t>
-  </si>
-  <si>
-    <t>EPS_std_A</t>
-  </si>
-  <si>
-    <t>EPS_avg_B</t>
-  </si>
-  <si>
-    <t>EPS_std_B</t>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>OD600_1</t>
+  </si>
+  <si>
+    <t>OD600_2</t>
+  </si>
+  <si>
+    <t>OD600_3</t>
+  </si>
+  <si>
+    <t>EPS_1</t>
+  </si>
+  <si>
+    <t>EPS_2</t>
+  </si>
+  <si>
+    <t>EPS_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,17 +110,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CBCA477A-C8FF-4FBE-B21B-5652466C1C26}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{988C3BA4-0C83-4A6B-B5BE-43AD5D279209}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,19 +411,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="10" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,481 +435,242 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.14643333333333333</v>
+        <v>6.45</v>
       </c>
       <c r="C2">
-        <v>5.7735026918956222E-5</v>
+        <v>0.1084</v>
       </c>
       <c r="D2">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>6.09</v>
-      </c>
-      <c r="G2">
-        <v>0.1467333333333333</v>
-      </c>
-      <c r="H2">
-        <v>7.9008438367894132E-3</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2046</v>
+        <v>5.89</v>
       </c>
       <c r="C3">
-        <v>9.7503846077988208E-3</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="D3">
-        <v>30.375</v>
+        <v>0.2974</v>
       </c>
       <c r="E3">
-        <v>0.37749172176353746</v>
+        <v>0.30159999999999998</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="H3">
-        <v>8.1853527718723964E-4</v>
-      </c>
-      <c r="I3">
-        <v>27.243333333333336</v>
-      </c>
-      <c r="J3">
-        <v>0.50737888538382481</v>
-      </c>
-      <c r="K3" s="1">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25.34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23.57</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25.93</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.47766666666666668</v>
+      <c r="B4" s="1">
+        <v>4.97</v>
       </c>
       <c r="C4">
-        <v>2.51504141781668E-2</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="D4">
-        <v>34.15</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="E4">
-        <v>0.95393920141694499</v>
+        <v>0.83069999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="G4">
-        <v>0.35203333333333336</v>
-      </c>
-      <c r="H4">
-        <v>5.661566332149922E-3</v>
-      </c>
-      <c r="I4">
-        <v>25.74666666666667</v>
-      </c>
-      <c r="J4">
-        <v>0.95022804280516371</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41.11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>39.82</v>
+      </c>
+      <c r="H4" s="1">
+        <v>39.92</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.94663333333333333</v>
+        <v>4.38</v>
       </c>
       <c r="C5">
-        <v>2.4381618759494468E-2</v>
+        <v>1.1924999999999999</v>
       </c>
       <c r="D5">
-        <v>53.516666666666673</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E5">
-        <v>0.91696964689859373</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.29</v>
+        <v>1.2222999999999999</v>
+      </c>
+      <c r="F5">
+        <v>49.93</v>
       </c>
       <c r="G5">
-        <v>0.82566666666666677</v>
+        <v>48.47</v>
       </c>
       <c r="H5">
-        <v>9.3836737652869002E-3</v>
-      </c>
-      <c r="I5">
-        <v>51.9</v>
-      </c>
-      <c r="J5">
-        <v>0.1571623364550184</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48.28</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.92540333333333324</v>
+        <v>4.18</v>
       </c>
       <c r="C6">
-        <v>0.68548182691690174</v>
+        <v>1.7128000000000001</v>
       </c>
       <c r="D6">
-        <v>83.466666666666669</v>
+        <v>1.7231000000000001</v>
       </c>
       <c r="E6">
-        <v>1.3714347718113775</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.93</v>
+        <v>1.7264999999999999</v>
+      </c>
+      <c r="F6">
+        <v>63.77</v>
       </c>
       <c r="G6">
-        <v>1.3875666666666666</v>
+        <v>62.96</v>
       </c>
       <c r="H6">
-        <v>4.8686069191641972E-3</v>
-      </c>
-      <c r="I6">
-        <v>63.056666666666672</v>
-      </c>
-      <c r="J6">
-        <v>0.43293571501243788</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1.5949266666666666</v>
+        <v>4.05</v>
       </c>
       <c r="C7">
-        <v>2.7741163157541465E-2</v>
+        <v>1.4300999999999999</v>
       </c>
       <c r="D7">
-        <v>102.41666666666667</v>
+        <v>1.4382999999999999</v>
       </c>
       <c r="E7">
-        <v>0.27424137786506747</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.72</v>
+        <v>1.4492</v>
+      </c>
+      <c r="F7">
+        <v>68.88</v>
       </c>
       <c r="G7">
-        <v>1.8013333333333332</v>
+        <v>69.02</v>
       </c>
       <c r="H7">
-        <v>3.6111678628019062E-2</v>
-      </c>
-      <c r="I7">
-        <v>56.833333333333336</v>
-      </c>
-      <c r="J7">
-        <v>0.44377171308380425</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>67.39</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1.5238333333333334</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>8.7231492784046859E-3</v>
+        <v>1.4645999999999999</v>
       </c>
       <c r="D8">
-        <v>115.88333333333333</v>
+        <v>1.4728000000000001</v>
       </c>
       <c r="E8">
-        <v>0.68571738590569287</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.58</v>
+        <v>1.4893000000000001</v>
+      </c>
+      <c r="F8">
+        <v>58.43</v>
       </c>
       <c r="G8">
-        <v>1.5675999999999999</v>
+        <v>61.29</v>
       </c>
       <c r="H8">
-        <v>5.400925846556273E-3</v>
-      </c>
-      <c r="I8">
-        <v>62.00333333333333</v>
-      </c>
-      <c r="J8">
-        <v>0.32005207909547079</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>60.5</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>1.5831999999999999</v>
+      <c r="B9" s="1">
+        <v>3.96</v>
       </c>
       <c r="C9">
-        <v>6.2786304239061577E-2</v>
+        <v>1.4683999999999999</v>
       </c>
       <c r="D9">
-        <v>91.475000000000009</v>
+        <v>1.5048999999999999</v>
       </c>
       <c r="E9">
-        <v>0.91275681317643464</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.48</v>
+        <v>1.5002</v>
+      </c>
+      <c r="F9">
+        <v>54.47</v>
       </c>
       <c r="G9">
-        <v>1.5548000000000002</v>
+        <v>52.89</v>
       </c>
       <c r="H9">
-        <v>1.08166538263917E-3</v>
-      </c>
-      <c r="I9">
-        <v>58.71</v>
-      </c>
-      <c r="J9">
-        <v>0.48569537778323513</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.75</v>
-      </c>
+        <v>55.92</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58850BAE-3B7B-4C0E-B4DB-EDA1F4A22F3B}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f>AVERAGE(A1:C1)</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f>_xlfn.STDEV.S(A1:C1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>27.3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>26.71</v>
-      </c>
-      <c r="C2" s="1">
-        <v>27.72</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="0">AVERAGE(A2:C2)</f>
-        <v>27.243333333333336</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="1">_xlfn.STDEV.S(A2:C2)</f>
-        <v>0.50737888538382481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>25.12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>26.84</v>
-      </c>
-      <c r="C3" s="1">
-        <v>25.28</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>25.74666666666667</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.95022804280516371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>51.73</v>
-      </c>
-      <c r="B4" s="1">
-        <v>51.93</v>
-      </c>
-      <c r="C4" s="1">
-        <v>52.04</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>51.9</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.1571623364550184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>63.55</v>
-      </c>
-      <c r="B5" s="1">
-        <v>62.88</v>
-      </c>
-      <c r="C5" s="1">
-        <v>62.74</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>63.056666666666672</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.43293571501243788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>56.36</v>
-      </c>
-      <c r="B6" s="1">
-        <v>57.24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>56.9</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>56.833333333333336</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.44377171308380425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>61.68</v>
-      </c>
-      <c r="B7" s="1">
-        <v>62.32</v>
-      </c>
-      <c r="C7" s="1">
-        <v>62.01</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>62.00333333333333</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.32005207909547079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>58.68</v>
-      </c>
-      <c r="B8" s="1">
-        <v>58.24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>59.21</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>58.71</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.48569537778323513</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>